--- a/excel/table1.xlsx
+++ b/excel/table1.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
-    <sheet name="_comment" sheetId="2" r:id="rId2"/>
+    <sheet name="hero" sheetId="3" r:id="rId2"/>
+    <sheet name="_comment" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>坦克id</t>
   </si>
@@ -122,84 +123,6 @@
   </si>
   <si>
     <t>20001,20002</t>
-  </si>
-  <si>
-    <t>int(20000,29999)</t>
-  </si>
-  <si>
-    <t>单位id</t>
-  </si>
-  <si>
-    <t>场景id</t>
-  </si>
-  <si>
-    <t>队伍</t>
-  </si>
-  <si>
-    <t>兵力 个</t>
-  </si>
-  <si>
-    <t>X位置</t>
-  </si>
-  <si>
-    <t>Y位置</t>
-  </si>
-  <si>
-    <t>移动方案id</t>
-  </si>
-  <si>
-    <t>带有技能</t>
-  </si>
-  <si>
-    <t>被动技能</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>war_id</t>
-  </si>
-  <si>
-    <t>war_team</t>
-  </si>
-  <si>
-    <t>unit_id</t>
-  </si>
-  <si>
-    <t>unit_num</t>
-  </si>
-  <si>
-    <t>unit_x</t>
-  </si>
-  <si>
-    <t>unit_y</t>
-  </si>
-  <si>
-    <t>unit_path</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>passive_skill</t>
-  </si>
-  <si>
-    <t>int(1,65536)</t>
-  </si>
-  <si>
-    <t>int(0,1)</t>
-  </si>
-  <si>
-    <t>int(1,2000)</t>
-  </si>
-  <si>
-    <t>int(0,29)</t>
-  </si>
-  <si>
-    <t>int(0,10)</t>
-  </si>
-  <si>
-    <t>array(1,50000,59999)</t>
   </si>
   <si>
     <t>黄金需求</t>
@@ -223,6 +146,35 @@
   </si>
   <si>
     <t>int(1,999)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commnet sheet,useless</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero's id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank_id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.describle name
+2.comment
+3.field name
+4.type and range
+5.not null?（empty means can't be null）
+6.id type（empty for other field）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -350,6 +302,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -545,7 +505,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,6 +514,17 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -948,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="A4:L6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1006,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1050,10 +1021,10 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1094,10 +1065,10 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1224,10 +1195,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="99.75">
+      <c r="A2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>10003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1243,837 +1278,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10001</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>20002</v>
-      </c>
-      <c r="I4">
-        <v>50001</v>
-      </c>
-      <c r="J4">
-        <v>52002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10002</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>20004</v>
-      </c>
-      <c r="I5">
-        <v>50002</v>
-      </c>
-      <c r="J5">
-        <v>52001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10002</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>20005</v>
-      </c>
-      <c r="I6">
-        <v>50003</v>
-      </c>
-      <c r="J6">
-        <v>52001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10001</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>20003</v>
-      </c>
-      <c r="I7">
-        <v>50004</v>
-      </c>
-      <c r="J7">
-        <v>52003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>10003</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>20001</v>
-      </c>
-      <c r="I8">
-        <v>50005</v>
-      </c>
-      <c r="J8">
-        <v>52004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>10001</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>20003</v>
-      </c>
-      <c r="I9">
-        <v>50006</v>
-      </c>
-      <c r="J9">
-        <v>52003</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>10001</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>20002</v>
-      </c>
-      <c r="I10">
-        <v>50001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>10001</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>20002</v>
-      </c>
-      <c r="I11">
-        <v>50002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>10001</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>20002</v>
-      </c>
-      <c r="I12">
-        <v>50003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>10001</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>20002</v>
-      </c>
-      <c r="I13">
-        <v>50004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>10003</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>20001</v>
-      </c>
-      <c r="I14">
-        <v>50005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>10003</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>20001</v>
-      </c>
-      <c r="I15">
-        <v>50006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>10001</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>20002</v>
-      </c>
-      <c r="I16">
-        <v>50001</v>
-      </c>
-      <c r="J16">
-        <v>52002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>10002</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>20004</v>
-      </c>
-      <c r="I17">
-        <v>50002</v>
-      </c>
-      <c r="J17">
-        <v>52001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>10002</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>20005</v>
-      </c>
-      <c r="I18">
-        <v>50003</v>
-      </c>
-      <c r="J18">
-        <v>52001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>10001</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>20003</v>
-      </c>
-      <c r="I19">
-        <v>50004</v>
-      </c>
-      <c r="J19">
-        <v>52003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>10003</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>20001</v>
-      </c>
-      <c r="I20">
-        <v>50005</v>
-      </c>
-      <c r="J20">
-        <v>52004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>10001</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>20003</v>
-      </c>
-      <c r="I21">
-        <v>50006</v>
-      </c>
-      <c r="J21">
-        <v>52003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>10001</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>26</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>20002</v>
-      </c>
-      <c r="I22">
-        <v>50001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>10001</v>
-      </c>
-      <c r="E23">
-        <v>50</v>
-      </c>
-      <c r="F23">
-        <v>26</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>20002</v>
-      </c>
-      <c r="I23">
-        <v>50002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>10001</v>
-      </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>26</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>20002</v>
-      </c>
-      <c r="I24">
-        <v>50003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>10001</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25">
-        <v>26</v>
-      </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-      <c r="H25">
-        <v>20002</v>
-      </c>
-      <c r="I25">
-        <v>50004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>10003</v>
-      </c>
-      <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>28</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>20001</v>
-      </c>
-      <c r="I26">
-        <v>50005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>10003</v>
-      </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>28</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>20001</v>
-      </c>
-      <c r="I27">
-        <v>50006</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:D10"/>
+  </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/excel/table1.xlsx
+++ b/excel/table1.xlsx
@@ -9,151 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21780" windowHeight="10335" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21780" windowHeight="10335" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="record" sheetId="1" r:id="rId1"/>
-    <sheet name="hero" sheetId="3" r:id="rId2"/>
-    <sheet name="_comment" sheetId="2" r:id="rId3"/>
+    <sheet name="hero" sheetId="3" r:id="rId1"/>
+    <sheet name="_comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
-  <si>
-    <t>坦克id</t>
-  </si>
-  <si>
-    <t>类型 1坦克2摩托3火炮</t>
-  </si>
-  <si>
-    <t>级别 1轻2中3重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击力 </t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>命中 百分比</t>
-  </si>
-  <si>
-    <t>速度 1/10格</t>
-  </si>
-  <si>
-    <t>攻击频率 毫秒</t>
-  </si>
-  <si>
-    <t>射程 格</t>
-  </si>
-  <si>
-    <t>资源id</t>
-  </si>
-  <si>
-    <t>预装动作</t>
-  </si>
-  <si>
-    <t>tank_id</t>
-  </si>
-  <si>
-    <t>tank_class</t>
-  </si>
-  <si>
-    <t>tank_level</t>
-  </si>
-  <si>
-    <t>tank_dmg</t>
-  </si>
-  <si>
-    <t>tank_def</t>
-  </si>
-  <si>
-    <t>tank_hp</t>
-  </si>
-  <si>
-    <t>tank_hit_rate</t>
-  </si>
-  <si>
-    <t>tank_spd</t>
-  </si>
-  <si>
-    <t>tank_hit_interval</t>
-  </si>
-  <si>
-    <t>tank_range</t>
-  </si>
-  <si>
-    <t>tank_pic</t>
-  </si>
-  <si>
-    <t>path_id</t>
-  </si>
-  <si>
-    <t>int(10000,19999)</t>
-  </si>
-  <si>
-    <t>int(1,3)</t>
-  </si>
-  <si>
-    <t>int(1,999)</t>
-  </si>
-  <si>
-    <t>int(1,100)</t>
-  </si>
-  <si>
-    <t>int(1,10000)</t>
-  </si>
-  <si>
-    <t>int(30000,39999)</t>
-  </si>
-  <si>
-    <t>array(1,20000,29999)</t>
-  </si>
-  <si>
-    <t>20002,20003,20001</t>
-  </si>
-  <si>
-    <t>20003,20004,20005</t>
-  </si>
-  <si>
-    <t>20001,20002</t>
-  </si>
-  <si>
-    <t>黄金需求</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口需求</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank_gold</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank_people</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(1,99999)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(1,999)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Commnet sheet,useless</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>tank_id</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -161,20 +34,21 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>tank_id</t>
+    <t>any thing here</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>1.describle name
-2.comment
-3.field name
-4.type and range
-5.not null?（empty means can't be null）
-6.id type（empty for other field）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
+    <t>{
+    "dataType" : "int",
+    "minValue" : 10000,
+    "maxValue" : 99999,
+    "minLen" : 3,
+    "maxLen" : 3,
+    "notNull" : true,
+    "idType" : "id",
+    "isArray" : false,
+    "allowedValues" : []
+}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -505,26 +379,26 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -917,288 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>10001</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>1999</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>30001</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>10002</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>999</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>30002</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>10003</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>75</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>4999</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>30003</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1207,47 +803,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>42</v>
+      <c r="A1" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="99.75">
-      <c r="A2" s="11" t="s">
-        <v>44</v>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>24</v>
+    <row r="4" spans="1:1" ht="156.75">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
-        <v>45</v>
+      <c r="A5">
+        <v>10001</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
+      <c r="A6">
+        <v>10002</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
         <v>10003</v>
       </c>
     </row>
@@ -1257,7 +843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -1278,9 +864,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1290,22 +876,22 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="J2" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="8" t="s">
-        <v>40</v>
+      <c r="B9" s="6" t="s">
+        <v>0</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/excel/table1.xlsx
+++ b/excel/table1.xlsx
@@ -389,9 +389,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -399,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -794,7 +794,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -803,12 +803,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="156.75">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -882,16 +882,16 @@
       <c r="J2" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/excel/table1.xlsx
+++ b/excel/table1.xlsx
@@ -40,10 +40,12 @@
   <si>
     <t>{
     "dataType" : "int",
+    "ref" : "",
     "minValue" : 10000,
     "maxValue" : 99999,
     "minLen" : 3,
     "maxLen" : 3,
+    "regExp" : "",
     "notNull" : true,
     "idType" : "id",
     "isArray" : false,
@@ -817,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="156.75">
+    <row r="4" spans="1:1" ht="185.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>

--- a/excel/table1.xlsx
+++ b/excel/table1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21780" windowHeight="10335" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="hero" sheetId="3" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="_comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,22 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Commnet sheet,useless</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero's id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>any thing here</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_array_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "int",
+    "minValue" : 1,
+    "maxValue" : 99
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "float",
+    "minValue" : 1.0,
+    "maxValue" : 99.0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_enum_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -51,25 +83,146 @@
     "isArray" : false,
     "allowedValues" : []
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting_reg_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,2,3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,2,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,1000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "int",
+    "minValue" : 1,
+    "maxValue" : 99,
+    "allowedValues" : [1,2,3,4]
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "int",
+    "minValue" : 1,
+    "maxValue" : 99,
+    "isArray" : true
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "string",
+    "minLen" : 3,
+    "maxLen" : 30
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "ref",
+    "ref" : "table2:sheet1"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "string",
+    "minLen" : 3,
+    "maxLen" : 30,
+    "regExp" : "[1-9]"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -77,6 +230,7 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -84,6 +238,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -91,6 +246,7 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -98,18 +254,21 @@
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -117,12 +276,14 @@
       <sz val="12"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -130,24 +291,28 @@
       <sz val="12"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -155,6 +320,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -162,6 +328,7 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -361,45 +528,48 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,54 +963,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="185.25">
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="185.25">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>10001</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
+        <v>123</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>10002</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>123</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>10003</v>
       </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>123</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -884,22 +1162,22 @@
       <c r="J2" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:D10"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
